--- a/outputs/mvp/ind_1_2_1/ind_1_2_1.xlsx
+++ b/outputs/mvp/ind_1_2_1/ind_1_2_1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,21 @@
       <c r="D2">
         <v>65055987.75902985</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -430,6 +445,16 @@
           <t>Feminino</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -451,6 +476,16 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -459,22 +494,27 @@
         </is>
       </c>
       <c r="B5">
-        <v>64632.60243108</v>
+        <v>121646.67028975</v>
       </c>
       <c r="C5">
-        <v>43022.52991883183</v>
+        <v>81118.2433826191</v>
       </c>
       <c r="D5">
-        <v>86242.67494332817</v>
+        <v>162175.0971968809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -485,22 +525,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>57014.06785867</v>
+        <v>18772989.23352168</v>
       </c>
       <c r="C6">
-        <v>34933.15692259914</v>
+        <v>18323627.73137993</v>
       </c>
       <c r="D6">
-        <v>79094.97879474086</v>
+        <v>19222350.73566343</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -511,22 +556,27 @@
         </is>
       </c>
       <c r="B7">
-        <v>9781231.967935961</v>
+        <v>1181.83119458</v>
       </c>
       <c r="C7">
-        <v>9547448.235305855</v>
+        <v>-245.4173010261909</v>
       </c>
       <c r="D7">
-        <v>10015015.70056607</v>
+        <v>2609.079690186191</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -537,22 +587,27 @@
         </is>
       </c>
       <c r="B8">
-        <v>8991757.265585721</v>
+        <v>168232.22041443</v>
       </c>
       <c r="C8">
-        <v>8724280.258922219</v>
+        <v>128603.5944420975</v>
       </c>
       <c r="D8">
-        <v>9259234.272249222</v>
+        <v>207860.8463867625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -563,22 +618,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>1046.27439439</v>
+        <v>45206725.98083337</v>
       </c>
       <c r="C9">
-        <v>-229.4051164652612</v>
+        <v>44547270.60016661</v>
       </c>
       <c r="D9">
-        <v>2321.953905245261</v>
+        <v>45866181.36150014</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -589,22 +649,27 @@
         </is>
       </c>
       <c r="B10">
-        <v>135.55680019</v>
+        <v>46858999.2645265</v>
       </c>
       <c r="C10">
-        <v>-143.9354607240765</v>
+        <v>46003790.28086898</v>
       </c>
       <c r="D10">
-        <v>415.0490611040765</v>
+        <v>47714208.24818402</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -615,22 +680,27 @@
         </is>
       </c>
       <c r="B11">
-        <v>81574.01270573</v>
+        <v>17411776.67172731</v>
       </c>
       <c r="C11">
-        <v>59616.59055542802</v>
+        <v>17016496.8114278</v>
       </c>
       <c r="D11">
-        <v>103531.434856032</v>
+        <v>17807056.53202682</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -641,22 +711,27 @@
         </is>
       </c>
       <c r="B12">
-        <v>86658.20770870001</v>
+        <v>64632.60243108</v>
       </c>
       <c r="C12">
-        <v>64565.72626309912</v>
+        <v>43022.52991883183</v>
       </c>
       <c r="D12">
-        <v>108750.6891543009</v>
+        <v>86242.67494332817</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -667,22 +742,27 @@
         </is>
       </c>
       <c r="B13">
-        <v>23152033.70208167</v>
+        <v>57014.06785867</v>
       </c>
       <c r="C13">
-        <v>22786525.99346916</v>
+        <v>34933.15692259914</v>
       </c>
       <c r="D13">
-        <v>23517541.41069418</v>
+        <v>79094.97879474086</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -693,22 +773,27 @@
         </is>
       </c>
       <c r="B14">
-        <v>22054692.2787517</v>
+        <v>9781231.967935961</v>
       </c>
       <c r="C14">
-        <v>21716909.91366982</v>
+        <v>9547448.235305855</v>
       </c>
       <c r="D14">
-        <v>22392474.64383359</v>
+        <v>10015015.70056607</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -719,27 +804,27 @@
         </is>
       </c>
       <c r="B15">
-        <v>55510.93611141</v>
+        <v>8991757.265585721</v>
       </c>
       <c r="C15">
-        <v>33722.27735939162</v>
+        <v>8724280.258922219</v>
       </c>
       <c r="D15">
-        <v>77299.59486342838</v>
+        <v>9259234.272249222</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -750,27 +835,27 @@
         </is>
       </c>
       <c r="B16">
-        <v>46156.90778289</v>
+        <v>1046.27439439</v>
       </c>
       <c r="C16">
-        <v>24426.85338806858</v>
+        <v>-229.4051164652612</v>
       </c>
       <c r="D16">
-        <v>67886.96217771141</v>
+        <v>2321.953905245261</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -781,27 +866,27 @@
         </is>
       </c>
       <c r="B17">
-        <v>7626849.73363358</v>
+        <v>135.55680019</v>
       </c>
       <c r="C17">
-        <v>7398674.29622115</v>
+        <v>-143.9354607240765</v>
       </c>
       <c r="D17">
-        <v>7855025.171046009</v>
+        <v>415.0490611040765</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -812,27 +897,27 @@
         </is>
       </c>
       <c r="B18">
-        <v>6841349.27737262</v>
+        <v>81574.01270573</v>
       </c>
       <c r="C18">
-        <v>6577096.040745457</v>
+        <v>59616.59055542802</v>
       </c>
       <c r="D18">
-        <v>7105602.513999783</v>
+        <v>103531.434856032</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -843,27 +928,27 @@
         </is>
       </c>
       <c r="B19">
-        <v>271.11360038</v>
+        <v>86658.20770870001</v>
       </c>
       <c r="C19">
-        <v>-287.870921448153</v>
+        <v>64565.72626309912</v>
       </c>
       <c r="D19">
-        <v>830.098122208153</v>
+        <v>108750.6891543009</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -874,27 +959,27 @@
         </is>
       </c>
       <c r="B20">
-        <v>135.55680019</v>
+        <v>23152033.70208167</v>
       </c>
       <c r="C20">
-        <v>-143.9354607240765</v>
+        <v>22786525.99346916</v>
       </c>
       <c r="D20">
-        <v>415.0490611040765</v>
+        <v>23517541.41069418</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -905,27 +990,27 @@
         </is>
       </c>
       <c r="B21">
-        <v>57932.90818096</v>
+        <v>22054692.2787517</v>
       </c>
       <c r="C21">
-        <v>40422.85749993847</v>
+        <v>21716909.91366982</v>
       </c>
       <c r="D21">
-        <v>75442.95886198153</v>
+        <v>22392474.64383359</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -936,22 +1021,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>65674.95178755</v>
+        <v>24608285.93622047</v>
       </c>
       <c r="C22">
-        <v>45986.23579598844</v>
+        <v>24154654.23968222</v>
       </c>
       <c r="D22">
-        <v>85363.66777911157</v>
+        <v>25061917.63275873</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -967,22 +1052,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>16867721.24469414</v>
+        <v>22250713.32830603</v>
       </c>
       <c r="C23">
-        <v>16489159.69836679</v>
+        <v>21808781.06094757</v>
       </c>
       <c r="D23">
-        <v>17246282.79102149</v>
+        <v>22692645.59566449</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -998,27 +1083,27 @@
         </is>
       </c>
       <c r="B24">
-        <v>15297396.63456278</v>
+        <v>8472232.62332836</v>
       </c>
       <c r="C24">
-        <v>14953518.78833381</v>
+        <v>8266057.981044677</v>
       </c>
       <c r="D24">
-        <v>15641274.48079174</v>
+        <v>8678407.265612042</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1114,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>9121.666319669999</v>
+        <v>8939544.048398949</v>
       </c>
       <c r="C25">
-        <v>5731.13268857621</v>
+        <v>8734051.963667316</v>
       </c>
       <c r="D25">
-        <v>12512.19995076379</v>
+        <v>9145036.133130582</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1060,17 +1145,17 @@
         </is>
       </c>
       <c r="B26">
-        <v>10857.16007578</v>
+        <v>101667.8438943</v>
       </c>
       <c r="C26">
-        <v>6151.996311227495</v>
+        <v>61239.01948821627</v>
       </c>
       <c r="D26">
-        <v>15562.3238403325</v>
+        <v>142096.6683003838</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1080,7 +1165,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1176,17 @@
         </is>
       </c>
       <c r="B27">
-        <v>2154382.23430238</v>
+        <v>14468199.0110062</v>
       </c>
       <c r="C27">
-        <v>2028126.204351165</v>
+        <v>14021976.27452372</v>
       </c>
       <c r="D27">
-        <v>2280638.264253595</v>
+        <v>14914421.74748868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1111,7 +1196,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1122,27 +1207,27 @@
         </is>
       </c>
       <c r="B28">
-        <v>2150407.9882131</v>
+        <v>406.67040057</v>
       </c>
       <c r="C28">
-        <v>2042460.950118413</v>
+        <v>-431.8063821722295</v>
       </c>
       <c r="D28">
-        <v>2258355.026307787</v>
+        <v>1245.14718331223</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1153,27 +1238,27 @@
         </is>
       </c>
       <c r="B29">
-        <v>775.16079401</v>
+        <v>123607.85996851</v>
       </c>
       <c r="C29">
-        <v>-354.7478971206847</v>
+        <v>90675.15582920489</v>
       </c>
       <c r="D29">
-        <v>1905.069485140685</v>
+        <v>156540.5641078151</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1184,27 +1269,27 @@
         </is>
       </c>
       <c r="B30">
-        <v>23641.10452477</v>
+        <v>32165117.87925692</v>
       </c>
       <c r="C30">
-        <v>10536.43972513637</v>
+        <v>31480167.60051576</v>
       </c>
       <c r="D30">
-        <v>36745.76932440363</v>
+        <v>32850068.15799808</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1215,22 +1300,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>20983.25592115</v>
+        <v>19978.82639545</v>
       </c>
       <c r="C31">
-        <v>10631.61598785554</v>
+        <v>13608.82726975543</v>
       </c>
       <c r="D31">
-        <v>31334.89585444446</v>
+        <v>26348.82552114456</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1246,22 +1331,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>6284312.45738753</v>
+        <v>4304790.22251548</v>
       </c>
       <c r="C32">
-        <v>6122479.949591621</v>
+        <v>4083706.804234058</v>
       </c>
       <c r="D32">
-        <v>6446144.96518344</v>
+        <v>4525873.640796902</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1277,22 +1362,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>6757295.64418892</v>
+        <v>775.16079401</v>
       </c>
       <c r="C33">
-        <v>6592265.534822725</v>
+        <v>-354.7478971206847</v>
       </c>
       <c r="D33">
-        <v>6922325.753555115</v>
+        <v>1905.069485140685</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1304,339 +1389,424 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B34">
-        <v>42991179.11155871</v>
+        <v>44624.36044592</v>
       </c>
       <c r="C34">
-        <v>42082360.78473654</v>
+        <v>21878.38142616754</v>
       </c>
       <c r="D34">
-        <v>43899997.43838088</v>
+        <v>67370.33946567246</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B35">
-        <v>22399824.56518212</v>
+        <v>13041608.10157645</v>
       </c>
       <c r="C35">
-        <v>21878498.66767178</v>
+        <v>12730675.88205814</v>
       </c>
       <c r="D35">
-        <v>22921150.46269245</v>
+        <v>13352540.32109476</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B36">
-        <v>20591354.54637659</v>
+        <v>55510.93611141</v>
       </c>
       <c r="C36">
-        <v>20147332.07816995</v>
+        <v>33722.27735939162</v>
       </c>
       <c r="D36">
-        <v>21035377.01458323</v>
+        <v>77299.59486342838</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37">
-        <v>149066.44464743</v>
+        <v>46156.90778289</v>
       </c>
       <c r="C37">
-        <v>122544.7486379261</v>
+        <v>24426.85338806858</v>
       </c>
       <c r="D37">
-        <v>175588.1406569339</v>
+        <v>67886.96217771141</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B38">
-        <v>124068.51376762</v>
+        <v>7626849.73363358</v>
       </c>
       <c r="C38">
-        <v>94959.32585705239</v>
+        <v>7398674.29622115</v>
       </c>
       <c r="D38">
-        <v>153177.7016781876</v>
+        <v>7855025.171046009</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B39">
-        <v>5862284.75124786</v>
+        <v>6841349.27737262</v>
       </c>
       <c r="C39">
-        <v>5596696.161900299</v>
+        <v>6577096.040745457</v>
       </c>
       <c r="D39">
-        <v>6127873.34059542</v>
+        <v>7105602.513999783</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>Branca</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B40">
-        <v>5279004.38006043</v>
+        <v>271.11360038</v>
       </c>
       <c r="C40">
-        <v>5053867.972881089</v>
+        <v>-287.870921448153</v>
       </c>
       <c r="D40">
-        <v>5504140.78723977</v>
+        <v>830.098122208153</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B41">
-        <v>4093.9097341</v>
+        <v>135.55680019</v>
       </c>
       <c r="C41">
-        <v>-250.4131466636991</v>
+        <v>-143.9354607240765</v>
       </c>
       <c r="D41">
-        <v>8438.232614863698</v>
+        <v>415.0490611040765</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B42">
-        <v>5251.65781521</v>
+        <v>57932.90818096</v>
       </c>
       <c r="C42">
-        <v>-1196.269719238268</v>
+        <v>40422.85749993847</v>
       </c>
       <c r="D42">
-        <v>11699.58534965827</v>
+        <v>75442.95886198153</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B43">
-        <v>167387.28552858</v>
+        <v>65674.95178755</v>
       </c>
       <c r="C43">
-        <v>131963.9615684085</v>
+        <v>45986.23579598844</v>
       </c>
       <c r="D43">
-        <v>202810.6094887514</v>
+        <v>85363.66777911157</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B44">
-        <v>133824.05367015</v>
+        <v>16867721.24469414</v>
       </c>
       <c r="C44">
-        <v>106655.4159111724</v>
+        <v>16489159.69836679</v>
       </c>
       <c r="D44">
-        <v>160992.6914291275</v>
+        <v>17246282.79102149</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B45">
-        <v>16216992.17402415</v>
+        <v>15297396.63456278</v>
       </c>
       <c r="C45">
-        <v>15848553.27711099</v>
+        <v>14953518.78833381</v>
       </c>
       <c r="D45">
-        <v>16585431.07093731</v>
+        <v>15641274.48079174</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B46">
-        <v>15049205.94106318</v>
+        <v>9121.666319669999</v>
       </c>
       <c r="C46">
-        <v>14707555.48067108</v>
+        <v>5731.13268857621</v>
       </c>
       <c r="D46">
-        <v>15390856.40145529</v>
+        <v>12512.19995076379</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B47">
-        <v>124936.87951757</v>
+        <v>10857.16007578</v>
       </c>
       <c r="C47">
-        <v>98215.15029365418</v>
+        <v>6151.996311227495</v>
       </c>
       <c r="D47">
-        <v>151658.6087414858</v>
+        <v>15562.3238403325</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1646,59 +1816,59 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B48">
-        <v>92641.30435255</v>
+        <v>2154382.23430238</v>
       </c>
       <c r="C48">
-        <v>64426.61640061802</v>
+        <v>2028126.204351165</v>
       </c>
       <c r="D48">
-        <v>120855.992304482</v>
+        <v>2280638.264253595</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B49">
-        <v>4634405.18598768</v>
+        <v>2150407.9882131</v>
       </c>
       <c r="C49">
-        <v>4371471.809366527</v>
+        <v>2042460.950118413</v>
       </c>
       <c r="D49">
-        <v>4897338.562608833</v>
+        <v>2258355.026307787</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1708,55 +1878,55 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B50">
-        <v>4009792.47850332</v>
+        <v>775.16079401</v>
       </c>
       <c r="C50">
-        <v>3796891.709333805</v>
+        <v>-354.7478971206847</v>
       </c>
       <c r="D50">
-        <v>4222693.247672834</v>
+        <v>1905.069485140685</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B51">
-        <v>4093.9097341</v>
+        <v>23641.10452477</v>
       </c>
       <c r="C51">
-        <v>-250.4131466636991</v>
+        <v>10536.43972513637</v>
       </c>
       <c r="D51">
-        <v>8438.232614863698</v>
+        <v>36745.76932440363</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1765,29 +1935,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B52">
-        <v>5251.65781521</v>
+        <v>20983.25592115</v>
       </c>
       <c r="C52">
-        <v>-1196.269719238268</v>
+        <v>10631.61598785554</v>
       </c>
       <c r="D52">
-        <v>11699.58534965827</v>
+        <v>31334.89585444446</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1796,29 +1966,29 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B53">
-        <v>125509.45299508</v>
+        <v>6284312.45738753</v>
       </c>
       <c r="C53">
-        <v>92087.10907690115</v>
+        <v>6122479.949591621</v>
       </c>
       <c r="D53">
-        <v>158931.7969132588</v>
+        <v>6446144.96518344</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1827,29 +1997,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B54">
-        <v>91127.45100726</v>
+        <v>6757295.64418892</v>
       </c>
       <c r="C54">
-        <v>64835.49945292147</v>
+        <v>6592265.534822725</v>
       </c>
       <c r="D54">
-        <v>117419.4025615985</v>
+        <v>6922325.753555115</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1858,12 +2028,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1874,27 +2044,27 @@
         </is>
       </c>
       <c r="B55">
-        <v>11931838.12666108</v>
+        <v>42991179.11155871</v>
       </c>
       <c r="C55">
-        <v>11555010.76284865</v>
+        <v>42082360.78473654</v>
       </c>
       <c r="D55">
-        <v>12308665.49047351</v>
+        <v>43899997.43838088</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1905,27 +2075,27 @@
         </is>
       </c>
       <c r="B56">
-        <v>10565002.95454153</v>
+        <v>22399824.56518212</v>
       </c>
       <c r="C56">
-        <v>10229314.73149226</v>
+        <v>21878498.66767178</v>
       </c>
       <c r="D56">
-        <v>10900691.1775908</v>
+        <v>22921150.46269245</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1936,27 +2106,27 @@
         </is>
       </c>
       <c r="B57">
-        <v>24129.56512986</v>
+        <v>20591354.54637659</v>
       </c>
       <c r="C57">
-        <v>17603.41103397391</v>
+        <v>20147332.07816995</v>
       </c>
       <c r="D57">
-        <v>30655.71922574608</v>
+        <v>21035377.01458323</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1967,17 +2137,17 @@
         </is>
       </c>
       <c r="B58">
-        <v>31427.20941507</v>
+        <v>273134.95841505</v>
       </c>
       <c r="C58">
-        <v>23759.86498925518</v>
+        <v>225578.2896545262</v>
       </c>
       <c r="D58">
-        <v>39094.55384088482</v>
+        <v>320691.6271755738</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1987,7 +2157,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1998,17 +2168,17 @@
         </is>
       </c>
       <c r="B59">
-        <v>1227879.56526018</v>
+        <v>11141289.13130829</v>
       </c>
       <c r="C59">
-        <v>1153818.746044213</v>
+        <v>10693373.53198643</v>
       </c>
       <c r="D59">
-        <v>1301940.384476147</v>
+        <v>11589204.73063015</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2018,7 +2188,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2029,27 +2199,27 @@
         </is>
       </c>
       <c r="B60">
-        <v>1269211.90155711</v>
+        <v>9345.567549309999</v>
       </c>
       <c r="C60">
-        <v>1192604.847129106</v>
+        <v>-950.7319675970703</v>
       </c>
       <c r="D60">
-        <v>1345818.955985114</v>
+        <v>19641.86706621707</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2060,27 +2230,27 @@
         </is>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>301211.33919873</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>244469.9604571404</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>357952.7179403196</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2091,27 +2261,27 @@
         </is>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>31266198.11508733</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>30610920.3409838</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>31921475.88919086</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2122,27 +2292,27 @@
         </is>
       </c>
       <c r="B63">
-        <v>41877.8325335</v>
+        <v>31584599.40111538</v>
       </c>
       <c r="C63">
-        <v>29380.60967246209</v>
+        <v>30665548.59616878</v>
       </c>
       <c r="D63">
-        <v>54375.05539453791</v>
+        <v>32503650.20606198</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -2153,22 +2323,22 @@
         </is>
       </c>
       <c r="B64">
-        <v>42696.60266289</v>
+        <v>11406579.71044333</v>
       </c>
       <c r="C64">
-        <v>32112.6680703644</v>
+        <v>11054393.56229722</v>
       </c>
       <c r="D64">
-        <v>53280.5372554156</v>
+        <v>11758765.85858944</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2184,13 +2354,13 @@
         </is>
       </c>
       <c r="B65">
-        <v>4285154.04736307</v>
+        <v>149066.44464743</v>
       </c>
       <c r="C65">
-        <v>4120451.40847383</v>
+        <v>122544.7486379261</v>
       </c>
       <c r="D65">
-        <v>4449856.68625231</v>
+        <v>175588.1406569339</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2199,12 +2369,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2215,25 +2385,1327 @@
         </is>
       </c>
       <c r="B66">
+        <v>124068.51376762</v>
+      </c>
+      <c r="C66">
+        <v>94959.32585705239</v>
+      </c>
+      <c r="D66">
+        <v>153177.7016781876</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>5862284.75124786</v>
+      </c>
+      <c r="C67">
+        <v>5596696.161900299</v>
+      </c>
+      <c r="D67">
+        <v>6127873.34059542</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>5279004.38006043</v>
+      </c>
+      <c r="C68">
+        <v>5053867.972881089</v>
+      </c>
+      <c r="D68">
+        <v>5504140.78723977</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>4093.9097341</v>
+      </c>
+      <c r="C69">
+        <v>-250.4131466636991</v>
+      </c>
+      <c r="D69">
+        <v>8438.232614863698</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>5251.65781521</v>
+      </c>
+      <c r="C70">
+        <v>-1196.269719238268</v>
+      </c>
+      <c r="D70">
+        <v>11699.58534965827</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>167387.28552858</v>
+      </c>
+      <c r="C71">
+        <v>131963.9615684085</v>
+      </c>
+      <c r="D71">
+        <v>202810.6094887514</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>133824.05367015</v>
+      </c>
+      <c r="C72">
+        <v>106655.4159111724</v>
+      </c>
+      <c r="D72">
+        <v>160992.6914291275</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>16216992.17402415</v>
+      </c>
+      <c r="C73">
+        <v>15848553.27711099</v>
+      </c>
+      <c r="D73">
+        <v>16585431.07093731</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>15049205.94106318</v>
+      </c>
+      <c r="C74">
+        <v>14707555.48067108</v>
+      </c>
+      <c r="D74">
+        <v>15390856.40145529</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>16820783.55489551</v>
+      </c>
+      <c r="C75">
+        <v>16285729.49006379</v>
+      </c>
+      <c r="D75">
+        <v>17355837.61972722</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>14763815.84621987</v>
+      </c>
+      <c r="C76">
+        <v>14328534.27790841</v>
+      </c>
+      <c r="D76">
+        <v>15199097.41453132</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>5579041.01028661</v>
+      </c>
+      <c r="C77">
+        <v>5394939.76309154</v>
+      </c>
+      <c r="D77">
+        <v>5763142.257481679</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>5827538.70015672</v>
+      </c>
+      <c r="C78">
+        <v>5636637.224713818</v>
+      </c>
+      <c r="D78">
+        <v>6018440.175599623</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>217578.18387012</v>
+      </c>
+      <c r="C79">
+        <v>170672.7782837001</v>
+      </c>
+      <c r="D79">
+        <v>264483.5894565399</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>8644197.664491</v>
+      </c>
+      <c r="C80">
+        <v>8211925.108729459</v>
+      </c>
+      <c r="D80">
+        <v>9076470.22025254</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>9345.567549309999</v>
+      </c>
+      <c r="C81">
+        <v>-950.7319675970703</v>
+      </c>
+      <c r="D81">
+        <v>19641.86706621707</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>216636.90400234</v>
+      </c>
+      <c r="C82">
+        <v>162391.1902986945</v>
+      </c>
+      <c r="D82">
+        <v>270882.6177059856</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>22496841.08120261</v>
+      </c>
+      <c r="C83">
+        <v>21830394.88511271</v>
+      </c>
+      <c r="D83">
+        <v>23163287.27729251</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>55556.77454493</v>
+      </c>
+      <c r="C84">
+        <v>44105.18150114386</v>
+      </c>
+      <c r="D84">
+        <v>67008.36758871614</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>2497091.46681729</v>
+      </c>
+      <c r="C85">
+        <v>2359745.743379203</v>
+      </c>
+      <c r="D85">
+        <v>2634437.190255377</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>84574.43519639</v>
+      </c>
+      <c r="C87">
+        <v>64226.08176458822</v>
+      </c>
+      <c r="D87">
+        <v>104922.7886281918</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>8769357.033884721</v>
+      </c>
+      <c r="C88">
+        <v>8454611.693088818</v>
+      </c>
+      <c r="D88">
+        <v>9084102.374680623</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>124936.87951757</v>
+      </c>
+      <c r="C89">
+        <v>98215.15029365418</v>
+      </c>
+      <c r="D89">
+        <v>151658.6087414858</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>92641.30435255</v>
+      </c>
+      <c r="C90">
+        <v>64426.61640061802</v>
+      </c>
+      <c r="D90">
+        <v>120855.992304482</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>4634405.18598768</v>
+      </c>
+      <c r="C91">
+        <v>4371471.809366527</v>
+      </c>
+      <c r="D91">
+        <v>4897338.562608833</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>4009792.47850332</v>
+      </c>
+      <c r="C92">
+        <v>3796891.709333805</v>
+      </c>
+      <c r="D92">
+        <v>4222693.247672834</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>4093.9097341</v>
+      </c>
+      <c r="C93">
+        <v>-250.4131466636991</v>
+      </c>
+      <c r="D93">
+        <v>8438.232614863698</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>5251.65781521</v>
+      </c>
+      <c r="C94">
+        <v>-1196.269719238268</v>
+      </c>
+      <c r="D94">
+        <v>11699.58534965827</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>125509.45299508</v>
+      </c>
+      <c r="C95">
+        <v>92087.10907690115</v>
+      </c>
+      <c r="D95">
+        <v>158931.7969132588</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>91127.45100726</v>
+      </c>
+      <c r="C96">
+        <v>64835.49945292147</v>
+      </c>
+      <c r="D96">
+        <v>117419.4025615985</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>11931838.12666108</v>
+      </c>
+      <c r="C97">
+        <v>11555010.76284865</v>
+      </c>
+      <c r="D97">
+        <v>12308665.49047351</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>10565002.95454153</v>
+      </c>
+      <c r="C98">
+        <v>10229314.73149226</v>
+      </c>
+      <c r="D98">
+        <v>10900691.1775908</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>24129.56512986</v>
+      </c>
+      <c r="C99">
+        <v>17603.41103397391</v>
+      </c>
+      <c r="D99">
+        <v>30655.71922574608</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>31427.20941507</v>
+      </c>
+      <c r="C100">
+        <v>23759.86498925518</v>
+      </c>
+      <c r="D100">
+        <v>39094.55384088482</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>1227879.56526018</v>
+      </c>
+      <c r="C101">
+        <v>1153818.746044213</v>
+      </c>
+      <c r="D101">
+        <v>1301940.384476147</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>1269211.90155711</v>
+      </c>
+      <c r="C102">
+        <v>1192604.847129106</v>
+      </c>
+      <c r="D102">
+        <v>1345818.955985114</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>41877.8325335</v>
+      </c>
+      <c r="C105">
+        <v>29380.60967246209</v>
+      </c>
+      <c r="D105">
+        <v>54375.05539453791</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>42696.60266289</v>
+      </c>
+      <c r="C106">
+        <v>32112.6680703644</v>
+      </c>
+      <c r="D106">
+        <v>53280.5372554156</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>4285154.04736307</v>
+      </c>
+      <c r="C107">
+        <v>4120451.40847383</v>
+      </c>
+      <c r="D107">
+        <v>4449856.68625231</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>4484202.98652165</v>
       </c>
-      <c r="C66">
+      <c r="C108">
         <v>4314739.039789673</v>
       </c>
-      <c r="D66">
+      <c r="D108">
         <v>4653666.933253627</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Rural</t>
         </is>
